--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="258">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>IGP</t>
-  </si>
-  <si>
-    <t>CB TVM Range &amp; EOW</t>
   </si>
   <si>
     <t>Nazarudeen S</t>
@@ -2274,7 +2271,7 @@
   <dimension ref="A1:V978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2342,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>9497996904</v>
@@ -2367,13 +2364,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="5">
         <v>9497996953</v>
@@ -2398,13 +2395,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="12">
         <v>9497990189</v>
@@ -2428,13 +2425,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="14">
         <v>9497990191</v>
@@ -2459,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="12">
         <v>9497987308</v>
@@ -2490,13 +2487,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="12">
         <v>9497990185</v>
@@ -2521,13 +2518,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="12">
         <v>9497990193</v>
@@ -2552,13 +2549,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="12">
         <v>9497990219</v>
@@ -2583,13 +2580,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="12">
         <v>9497987271</v>
@@ -2614,13 +2611,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="12">
         <v>9497990149</v>
@@ -2645,13 +2642,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="12">
         <v>9497965299</v>
@@ -2676,13 +2673,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="5">
         <v>9497996952</v>
@@ -2707,13 +2704,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12">
         <v>9497990186</v>
@@ -2738,13 +2735,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12">
         <v>9497990192</v>
@@ -2769,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12">
         <v>944782006</v>
@@ -2800,13 +2797,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="12">
         <v>9497987256</v>
@@ -2831,13 +2828,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="12">
         <v>9497987255</v>
@@ -2862,13 +2859,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="12">
         <v>8921245700</v>
@@ -2893,13 +2890,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="12">
         <v>9497987263</v>
@@ -2924,13 +2921,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="14">
         <v>9497987262</v>
@@ -2955,13 +2952,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="16">
         <v>9497996950</v>
@@ -2986,13 +2983,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="14">
         <v>9497990195</v>
@@ -3017,13 +3014,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="D25" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="14">
         <v>9497990194</v>
@@ -3048,13 +3045,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="14">
         <v>9497990206</v>
@@ -3079,13 +3076,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="14">
         <v>9497987272</v>
@@ -3110,13 +3107,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="17">
         <v>9497987270</v>
@@ -3141,13 +3138,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="14">
         <v>9497987260</v>
@@ -3172,13 +3169,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="14">
         <v>9497987257</v>
@@ -3203,13 +3200,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="14">
         <v>9497987265</v>
@@ -3234,13 +3231,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E32" s="5">
         <v>9497996950</v>
@@ -3265,13 +3262,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E33" s="14">
         <v>9497990200</v>
@@ -3296,13 +3293,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="12">
         <v>9497987278</v>
@@ -3327,13 +3324,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="12">
         <v>9497987273</v>
@@ -3358,13 +3355,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="12">
         <v>9497987267</v>
@@ -3389,13 +3386,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="5">
         <v>9497990216</v>
@@ -3420,13 +3417,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="14">
         <v>9497990196</v>
@@ -3451,13 +3448,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="18">
         <v>9497990198</v>
@@ -3482,13 +3479,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="14">
         <v>9497987274</v>
@@ -3513,13 +3510,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="D41" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="14">
         <v>9497987259</v>
@@ -3544,13 +3541,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="14">
         <v>9497987264</v>
@@ -3575,13 +3572,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="E43" s="5">
         <v>9497996947</v>
@@ -3606,13 +3603,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="D44" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="12">
         <v>9497990197</v>
@@ -3637,13 +3634,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="12">
         <v>9497990201</v>
@@ -3670,13 +3667,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="12">
         <v>9497990203</v>
@@ -3701,13 +3698,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="12">
         <v>9497987275</v>
@@ -3732,13 +3729,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D48" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="12">
         <v>9497987261</v>
@@ -3763,13 +3760,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="12">
         <v>9497987283</v>
@@ -3794,13 +3791,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="12">
         <v>9497987282</v>
@@ -3825,13 +3822,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E51" s="5">
         <v>9497996949</v>
@@ -3856,13 +3853,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" s="21">
         <v>9497987289</v>
@@ -3887,13 +3884,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="22">
         <v>9497990204</v>
@@ -3918,13 +3915,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D54" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="22">
         <v>9497987288</v>
@@ -3949,13 +3946,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="22">
         <v>9497987286</v>
@@ -3980,13 +3977,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E56" s="25">
         <v>9497987287</v>
@@ -4011,13 +4008,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E57" s="5">
         <v>9497996946</v>
@@ -4042,13 +4039,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="12">
         <v>9497990207</v>
@@ -4073,13 +4070,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" s="14">
         <v>9497990205</v>
@@ -4104,13 +4101,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="D60" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="14">
         <v>9497990199</v>
@@ -4135,13 +4132,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E61" s="12">
         <v>9497981060</v>
@@ -4166,13 +4163,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" s="12">
         <v>9497901152</v>
@@ -4197,13 +4194,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="12">
         <v>8547429572</v>
@@ -4228,13 +4225,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" s="12">
         <v>9497987292</v>
@@ -4259,13 +4256,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="12">
         <v>9497987276</v>
@@ -4290,13 +4287,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E66" s="5">
         <v>9497996948</v>
@@ -4321,13 +4318,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67" s="12">
         <v>9497990208</v>
@@ -4352,13 +4349,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="14">
         <v>9497991040</v>
@@ -4383,13 +4380,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="12">
         <v>9497987295</v>
@@ -4414,13 +4411,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="12">
         <v>9497987284</v>
@@ -4445,13 +4442,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="12">
         <v>9497987279</v>
@@ -4476,13 +4473,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>124</v>
       </c>
       <c r="E72" s="31">
         <v>9497996945</v>
@@ -4507,13 +4504,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="D73" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73" s="33">
         <v>9497990210</v>
@@ -4538,13 +4535,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="D74" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" s="33">
         <v>9497990209</v>
@@ -4569,13 +4566,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E75" s="33">
         <v>9497990214</v>
@@ -4600,13 +4597,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76" s="33">
         <v>9497981067</v>
@@ -4631,13 +4628,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" s="33">
         <v>9656445181</v>
@@ -4662,13 +4659,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="33">
         <v>9497987293</v>
@@ -4693,13 +4690,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="D79" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="33">
         <v>9497981052</v>
@@ -4724,13 +4721,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="D80" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="33">
         <v>9497981052</v>
@@ -4755,13 +4752,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="D81" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="E81" s="34">
         <v>9497996913</v>
@@ -4786,13 +4783,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="33">
         <v>9497990202</v>
@@ -4817,13 +4814,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="33">
         <v>9497990211</v>
@@ -4848,13 +4845,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84" s="33">
         <v>9497987305</v>
@@ -4879,13 +4876,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="33">
         <v>9497987307</v>
@@ -4910,13 +4907,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" s="33">
         <v>9497987297</v>
@@ -4941,13 +4938,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="33">
         <v>9497987296</v>
@@ -4972,13 +4969,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="D88" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="34">
         <v>9497996944</v>
@@ -5003,13 +5000,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="D89" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="E89" s="33">
         <v>9497990212</v>
@@ -5034,13 +5031,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="33" t="s">
-        <v>152</v>
-      </c>
       <c r="D90" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" s="33">
         <v>9497990217</v>
@@ -5065,13 +5062,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" s="35">
         <v>9497987306</v>
@@ -5096,13 +5093,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="33">
         <v>9497981072</v>
@@ -5127,13 +5124,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" s="33">
         <v>9497987300</v>
@@ -5158,13 +5155,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94" s="33">
         <v>9497987309</v>
@@ -5189,13 +5186,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="33" t="s">
-        <v>158</v>
-      </c>
       <c r="D95" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95" s="33">
         <v>9497987309</v>
@@ -5220,13 +5217,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96" s="33">
         <v>9497965030</v>
@@ -5251,13 +5248,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="36" t="s">
         <v>160</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>161</v>
       </c>
       <c r="E97" s="36">
         <v>9497996944</v>
@@ -5282,13 +5279,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="E98" s="35">
         <v>9497990213</v>
@@ -5313,13 +5310,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C99" s="33" t="s">
-        <v>165</v>
-      </c>
       <c r="D99" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99" s="35">
         <v>9497987301</v>
@@ -5344,13 +5341,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="33" t="s">
-        <v>167</v>
-      </c>
       <c r="D100" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E100" s="35">
         <v>9497981074</v>
@@ -5375,13 +5372,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E101" s="33">
         <v>9497965167</v>
@@ -5406,13 +5403,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>169</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>170</v>
       </c>
       <c r="E102" s="35">
         <v>9497996942</v>
@@ -5437,13 +5434,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="35" t="s">
-        <v>172</v>
-      </c>
       <c r="D103" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" s="35">
         <v>9497990220</v>
@@ -5468,13 +5465,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E104" s="35">
         <v>9497990215</v>
@@ -5499,13 +5496,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="35" t="s">
-        <v>175</v>
-      </c>
       <c r="D105" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E105" s="35">
         <v>9497990218</v>
@@ -5530,13 +5527,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="35" t="s">
-        <v>177</v>
-      </c>
       <c r="D106" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" s="35">
         <v>9497987310</v>
@@ -5561,13 +5558,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E107" s="35">
         <v>9497987313</v>
@@ -5592,13 +5589,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E108" s="35">
         <v>9497987313</v>
@@ -5623,13 +5620,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E109" s="35">
         <v>9497987299</v>
@@ -5654,13 +5651,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E110" s="35">
         <v>9497987303</v>
@@ -5685,13 +5682,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E111" s="35">
         <v>9497996942</v>
@@ -5716,13 +5713,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="E112" s="35">
         <v>9497990221</v>
@@ -5747,13 +5744,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E113" s="35">
         <v>9497987314</v>
@@ -5778,13 +5775,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E114" s="35">
         <v>9497987312</v>
@@ -5809,13 +5806,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E115" s="35">
         <v>9497981082</v>
@@ -5840,13 +5837,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="E116" s="34">
         <v>9497996951</v>
@@ -5871,13 +5868,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E117" s="33">
         <v>9497981083</v>
@@ -5902,13 +5899,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E118" s="33">
         <v>9497901501</v>
@@ -5933,13 +5930,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E119" s="33">
         <v>9497987269</v>
@@ -5964,13 +5961,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="34" t="s">
         <v>193</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>194</v>
       </c>
       <c r="E120" s="34">
         <v>9497996911</v>
@@ -5995,13 +5992,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E121" s="33">
         <v>9497990187</v>
@@ -6026,13 +6023,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="E122" s="33">
         <v>9497901514</v>
@@ -6057,13 +6054,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>198</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>199</v>
       </c>
       <c r="E123" s="33">
         <v>9497987291</v>
@@ -6088,13 +6085,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="34" t="s">
-        <v>201</v>
       </c>
       <c r="E124" s="34">
         <v>9497996943</v>
@@ -6119,13 +6116,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E125" s="40">
         <v>8547606779</v>
@@ -6150,13 +6147,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E126" s="40">
         <v>9447012093</v>
@@ -6181,13 +6178,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E127" s="35">
         <v>9497965176</v>
@@ -6212,13 +6209,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>206</v>
       </c>
       <c r="E128" s="34">
         <v>9497981040</v>
@@ -6243,13 +6240,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E129" s="33">
         <v>9497990342</v>
@@ -6274,13 +6271,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E130" s="33">
         <v>9497965462</v>
@@ -6305,13 +6302,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E131" s="33">
         <v>9497965460</v>
@@ -6336,13 +6333,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="E132" s="44">
         <v>9497996901</v>
@@ -6367,13 +6364,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="43" t="s">
         <v>212</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="43" t="s">
-        <v>213</v>
       </c>
       <c r="E133" s="44">
         <v>9497996928</v>
@@ -6398,13 +6395,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>215</v>
       </c>
       <c r="E134" s="44">
         <v>9497996940</v>
@@ -6429,13 +6426,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="43" t="s">
         <v>216</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="43" t="s">
-        <v>217</v>
       </c>
       <c r="E135" s="44">
         <v>9497996941</v>
@@ -6460,13 +6457,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="43" t="s">
         <v>218</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="43" t="s">
-        <v>219</v>
       </c>
       <c r="E136" s="46">
         <v>9497995901</v>
@@ -6491,13 +6488,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="43" t="s">
         <v>220</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="E137" s="46">
         <v>9497995902</v>
@@ -6522,13 +6519,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="43" t="s">
-        <v>223</v>
       </c>
       <c r="E138" s="46">
         <v>9497995903</v>
@@ -6553,13 +6550,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="43" t="s">
-        <v>225</v>
       </c>
       <c r="E139" s="46">
         <v>9497995904</v>
@@ -6584,13 +6581,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="E140" s="46">
         <v>9497995905</v>
@@ -6615,13 +6612,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="43" t="s">
         <v>228</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="43" t="s">
-        <v>229</v>
       </c>
       <c r="E141" s="46">
         <v>9497995906</v>
@@ -6646,13 +6643,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="43" t="s">
         <v>230</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="43" t="s">
-        <v>231</v>
       </c>
       <c r="E142" s="46">
         <v>9497995907</v>
@@ -6677,13 +6674,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="43" t="s">
         <v>232</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="43" t="s">
-        <v>233</v>
       </c>
       <c r="E143" s="46">
         <v>9497995908</v>
@@ -6708,13 +6705,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="43" t="s">
         <v>234</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="43" t="s">
-        <v>235</v>
       </c>
       <c r="E144" s="46">
         <v>9497995909</v>
@@ -6739,13 +6736,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>236</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>237</v>
       </c>
       <c r="E145" s="46">
         <v>9497995910</v>
@@ -6770,13 +6767,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="43" t="s">
         <v>238</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="43" t="s">
-        <v>239</v>
       </c>
       <c r="E146" s="46">
         <v>9497995911</v>
@@ -6801,13 +6798,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D147" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E147" s="50">
         <v>9497947001</v>
@@ -6832,16 +6829,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" s="51" t="s">
         <v>241</v>
-      </c>
-      <c r="C148" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E148" s="51" t="s">
-        <v>242</v>
       </c>
       <c r="H148" s="26"/>
       <c r="J148" s="26"/>
@@ -6863,13 +6860,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D149" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E149" s="50">
         <v>9497947003</v>
@@ -6894,13 +6891,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D150" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E150" s="50">
         <v>9497947004</v>
@@ -6925,13 +6922,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E151" s="50">
         <v>9497947005</v>
@@ -6956,13 +6953,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C152" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E152" s="50">
         <v>9497947006</v>
@@ -6987,13 +6984,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C153" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E153" s="50">
         <v>9497947009</v>
@@ -7018,13 +7015,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D154" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E154" s="50">
         <v>9497947008</v>
@@ -7049,13 +7046,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D155" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E155" s="50">
         <v>9497947010</v>
@@ -7080,13 +7077,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E156" s="50">
         <v>9497947011</v>
@@ -7111,13 +7108,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E157" s="50">
         <v>9497947012</v>
@@ -7142,13 +7139,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E158" s="53">
         <v>9544556691</v>
@@ -7173,13 +7170,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E159" s="53">
         <v>9496326465</v>
@@ -7204,13 +7201,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C160" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E160" s="50">
         <v>9497947016</v>
@@ -7235,13 +7232,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D161" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" s="46">
         <v>9497947020</v>
@@ -7266,13 +7263,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C162" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D162" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E162" s="46">
         <v>9497947019</v>
@@ -7297,13 +7294,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C163" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D163" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E163" s="46">
         <v>9497947018</v>
@@ -7328,13 +7325,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" s="46">
         <v>9497947021</v>
